--- a/data/Water_database_38.xlsx
+++ b/data/Water_database_38.xlsx
@@ -158,10 +158,10 @@
     <t>natural resource::in ground</t>
   </si>
   <si>
+    <t>ecoinvent 3.8 cutoff</t>
+  </si>
+  <si>
     <t>Water_38</t>
-  </si>
-  <si>
-    <t>ei 3.8 cutoff</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>29</v>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>

--- a/data/Water_database_38.xlsx
+++ b/data/Water_database_38.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
